--- a/Propane 20KW/Propane 20KW_Ave_SOOT_Mass_FRAC.xlsx
+++ b/Propane 20KW/Propane 20KW_Ave_SOOT_Mass_FRAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Propane 20KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Propane 20KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4683E510-00EB-49C8-8BDA-35755AAF6DEE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C303EE8F-84D5-4674-B0A0-C0218EB8C192}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-945" windowWidth="16200" windowHeight="10995" xr2:uid="{E3613D8F-0B7B-48FD-A4BA-88540A54AA2B}"/>
+    <workbookView xWindow="25200" yWindow="-945" windowWidth="16200" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Mass_Frac_Soot" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Position_cm</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,12 +74,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD127A13-AD2B-4324-98A6-6229E3745D60}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -436,116 +440,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.7697876111325813E-4</v>
+        <v>0.00029455482689436796</v>
       </c>
       <c r="C2">
-        <v>9.8143394345154714E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.1989392078100947e-05</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.1623945510235479E-3</v>
+        <v>0.0010975467092160876</v>
       </c>
       <c r="C3">
-        <v>1.0293659913225739E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.00013030356923679845</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.4994512936396332E-3</v>
+        <v>0.0014428305124144605</v>
       </c>
       <c r="C4">
-        <v>2.0403087769715666E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.00023877477215973462</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.4489293767077239E-3</v>
+        <v>0.0024457356471995137</v>
       </c>
       <c r="C5">
-        <v>9.4912310672329851E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.00014134073249902275</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.7178377103208324E-3</v>
+        <v>0.0026690825604319683</v>
       </c>
       <c r="C6">
-        <v>8.9856085595098068E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.00012062932439345467</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>2.1193908316500293E-3</v>
+        <v>0.0018965834608188554</v>
       </c>
       <c r="C7">
-        <v>2.4861106156850998E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0002239375285373656</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>5.2042988062754852E-4</v>
+        <v>0.00037146031177927736</v>
       </c>
       <c r="C8">
-        <v>7.0478787337948526E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.5462400184037361e-05</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.6538119884990649E-4</v>
+        <v>0.00010130575937074625</v>
       </c>
       <c r="C9">
-        <v>3.3259271501251949E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2311503349972112e-05</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
-      </c>
-      <c r="C10">
-        <v>3.3259271501251949E-5</v>
       </c>
     </row>
   </sheetData>
